--- a/data/Beta Round3 + post.xlsx
+++ b/data/Beta Round3 + post.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$11</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -1382,39 +1382,570 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44479.030752314815</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44479.03244212963</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>44479.03245556713</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>R_9Tshd4Fg1ywslcl</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>30524.0</v>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>i guess i have no choice</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="Y8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="AA8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>Strongly agree</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF8" s="2" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+      <c r="AG8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" s="2" t="inlineStr">
+        <is>
+          <t>No, I would probably not be willing to</t>
+        </is>
+      </c>
+      <c r="AK8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL8" s="2" t="inlineStr">
+        <is>
+          <t>I don't trust donating my data in any case.</t>
+        </is>
+      </c>
+      <c r="AM8" s="2" t="inlineStr">
+        <is>
+          <t>30524</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44479.68016203704</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44479.68466435185</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>44479.68467381944</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>R_3NIeNya9Js5YOiS</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>12430.0</v>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>As I trust this data will not be used for other intentions outside of research</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Y9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Z9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AA9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AB9" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF9" s="2" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+      <c r="AG9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="2" t="inlineStr">
+        <is>
+          <t>Yes, I would probably be willing to</t>
+        </is>
+      </c>
+      <c r="AK9" s="2" t="inlineStr">
+        <is>
+          <t>As long as there is a good explaination of how it is anonimized (or at least a guarantee from a reputable party) and no direct profit/commercial goals related. Im fine with helping reseach</t>
+        </is>
+      </c>
+      <c r="AL9" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM9" s="2" t="inlineStr">
+        <is>
+          <t>12430</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44487.674722222226</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44487.68368055556</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>44487.683691122686</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>R_1LNmo16ghupyBzt</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>96722.0</v>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>I've done it before.</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Y10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AA10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF10" s="2" t="inlineStr">
+        <is>
+          <t>Version 2</t>
+        </is>
+      </c>
+      <c r="AG10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" s="2" t="inlineStr">
+        <is>
+          <t>It was not overloaded with information, yet ensuring and clear. The third version was the most detailed but not necessary as I have completed the process multiple times already. The first version was the least ensuring, because it came at the beginning, when I still felt unsure about the data anyways.</t>
+        </is>
+      </c>
+      <c r="AI10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ10" s="2" t="inlineStr">
+        <is>
+          <t>Yes, I would probably be willing to</t>
+        </is>
+      </c>
+      <c r="AK10" s="2" t="inlineStr">
+        <is>
+          <t>In the end, it comes down to convenience. I did these subsequent donations because I did not have to download the data again. I believe if the data upload process would use means of a more automatic process to gather the data by using, for instance, Google APIs, people would be most willing to donate. However, this also needs to be permission/consent-based and on a moderate scale as it may lead to a new Cambridge Analytica controversy otherwise.</t>
+        </is>
+      </c>
+      <c r="AL10" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM10" s="2" t="inlineStr">
+        <is>
+          <t>96722</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AM8"/>
+  <autoFilter ref="A2:AM11"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C7" numberStoredAsText="true"/>
-    <ignoredError sqref="D1:D7" numberStoredAsText="true"/>
-    <ignoredError sqref="G1:G7" numberStoredAsText="true"/>
-    <ignoredError sqref="I1:I7" numberStoredAsText="true"/>
-    <ignoredError sqref="J1:J7" numberStoredAsText="true"/>
-    <ignoredError sqref="K1:K7" numberStoredAsText="true"/>
-    <ignoredError sqref="L1:L7" numberStoredAsText="true"/>
-    <ignoredError sqref="M1:M7" numberStoredAsText="true"/>
-    <ignoredError sqref="N1:N7" numberStoredAsText="true"/>
-    <ignoredError sqref="O1:O7" numberStoredAsText="true"/>
-    <ignoredError sqref="P1:P7" numberStoredAsText="true"/>
-    <ignoredError sqref="Q1:Q7" numberStoredAsText="true"/>
-    <ignoredError sqref="S1:S7" numberStoredAsText="true"/>
-    <ignoredError sqref="U1:U7" numberStoredAsText="true"/>
-    <ignoredError sqref="V1:V7" numberStoredAsText="true"/>
-    <ignoredError sqref="W1:W7" numberStoredAsText="true"/>
-    <ignoredError sqref="X1:X7" numberStoredAsText="true"/>
-    <ignoredError sqref="Y1:Y7" numberStoredAsText="true"/>
-    <ignoredError sqref="Z1:Z7" numberStoredAsText="true"/>
-    <ignoredError sqref="AA1:AA7" numberStoredAsText="true"/>
-    <ignoredError sqref="AB1:AB7" numberStoredAsText="true"/>
-    <ignoredError sqref="AF1:AF7" numberStoredAsText="true"/>
-    <ignoredError sqref="AG1:AG7" numberStoredAsText="true"/>
-    <ignoredError sqref="AH1:AH7" numberStoredAsText="true"/>
-    <ignoredError sqref="AI1:AI7" numberStoredAsText="true"/>
-    <ignoredError sqref="AJ1:AJ7" numberStoredAsText="true"/>
-    <ignoredError sqref="AK1:AK7" numberStoredAsText="true"/>
-    <ignoredError sqref="AL1:AL7" numberStoredAsText="true"/>
-    <ignoredError sqref="AM1:AM7" numberStoredAsText="true"/>
+    <ignoredError sqref="C1:C10" numberStoredAsText="true"/>
+    <ignoredError sqref="D1:D10" numberStoredAsText="true"/>
+    <ignoredError sqref="G1:G10" numberStoredAsText="true"/>
+    <ignoredError sqref="I1:I10" numberStoredAsText="true"/>
+    <ignoredError sqref="J1:J10" numberStoredAsText="true"/>
+    <ignoredError sqref="K1:K10" numberStoredAsText="true"/>
+    <ignoredError sqref="L1:L10" numberStoredAsText="true"/>
+    <ignoredError sqref="M1:M10" numberStoredAsText="true"/>
+    <ignoredError sqref="N1:N10" numberStoredAsText="true"/>
+    <ignoredError sqref="O1:O10" numberStoredAsText="true"/>
+    <ignoredError sqref="P1:P10" numberStoredAsText="true"/>
+    <ignoredError sqref="Q1:Q10" numberStoredAsText="true"/>
+    <ignoredError sqref="S1:S10" numberStoredAsText="true"/>
+    <ignoredError sqref="U1:U10" numberStoredAsText="true"/>
+    <ignoredError sqref="V1:V10" numberStoredAsText="true"/>
+    <ignoredError sqref="W1:W10" numberStoredAsText="true"/>
+    <ignoredError sqref="X1:X10" numberStoredAsText="true"/>
+    <ignoredError sqref="Y1:Y10" numberStoredAsText="true"/>
+    <ignoredError sqref="Z1:Z10" numberStoredAsText="true"/>
+    <ignoredError sqref="AA1:AA10" numberStoredAsText="true"/>
+    <ignoredError sqref="AB1:AB10" numberStoredAsText="true"/>
+    <ignoredError sqref="AF1:AF10" numberStoredAsText="true"/>
+    <ignoredError sqref="AG1:AG10" numberStoredAsText="true"/>
+    <ignoredError sqref="AH1:AH10" numberStoredAsText="true"/>
+    <ignoredError sqref="AI1:AI10" numberStoredAsText="true"/>
+    <ignoredError sqref="AJ1:AJ10" numberStoredAsText="true"/>
+    <ignoredError sqref="AK1:AK10" numberStoredAsText="true"/>
+    <ignoredError sqref="AL1:AL10" numberStoredAsText="true"/>
+    <ignoredError sqref="AM1:AM10" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
